--- a/EA-Fleet-Reporting/Documents/Config/config.xlsx
+++ b/EA-Fleet-Reporting/Documents/Config/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x953234\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrotty\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t xml:space="preserve"> ROBOT PARAMETERS</t>
   </si>
@@ -62,16 +62,151 @@
     <t>Description</t>
   </si>
   <si>
-    <t>C:\Users\{0}\Desktop\Demo Robot Log_{1}.xlsx</t>
-  </si>
-  <si>
     <t>WorkpackageName</t>
   </si>
   <si>
-    <t>Demo Robot</t>
-  </si>
-  <si>
     <t>workpackage name</t>
+  </si>
+  <si>
+    <t>EA Fleet Reporting</t>
+  </si>
+  <si>
+    <t>maxRetries</t>
+  </si>
+  <si>
+    <t>The number of time a failed workflow will be retried before the process stops</t>
+  </si>
+  <si>
+    <t>timeoutXS</t>
+  </si>
+  <si>
+    <t>one second</t>
+  </si>
+  <si>
+    <t>timeoutMS</t>
+  </si>
+  <si>
+    <t>three seconds</t>
+  </si>
+  <si>
+    <t>timeoutS</t>
+  </si>
+  <si>
+    <t>five seconds</t>
+  </si>
+  <si>
+    <t>timeoutM</t>
+  </si>
+  <si>
+    <t>thirty seconds</t>
+  </si>
+  <si>
+    <t>timeoutL</t>
+  </si>
+  <si>
+    <t>one minute</t>
+  </si>
+  <si>
+    <t>timeoutXL</t>
+  </si>
+  <si>
+    <t>two minutes</t>
+  </si>
+  <si>
+    <t>C:\Users\{0}\Desktop\EA Fleet Reporting Robot Log_{1}.xlsx</t>
+  </si>
+  <si>
+    <t>ODBCTEST</t>
+  </si>
+  <si>
+    <t>crystal reports password</t>
+  </si>
+  <si>
+    <t>strPassword</t>
+  </si>
+  <si>
+    <t>strMonthlyStartReportfilename</t>
+  </si>
+  <si>
+    <t>strMonthlysimarReportfilename</t>
+  </si>
+  <si>
+    <t>strWeeklysimarReportdistroList</t>
+  </si>
+  <si>
+    <t>strWeeklysimarReportfilenames</t>
+  </si>
+  <si>
+    <t>strWeeklymidReportfilenames</t>
+  </si>
+  <si>
+    <t>distribution list</t>
+  </si>
+  <si>
+    <t>strWeeklymidReportdistroList</t>
+  </si>
+  <si>
+    <t>strMonthlysimarReportdistroList</t>
+  </si>
+  <si>
+    <t>strMonthlyStartReportdistroList</t>
+  </si>
+  <si>
+    <t>SIMAR Commercial Vehicle Reconciliation,SIMAR Plant Reconciliation</t>
+  </si>
+  <si>
+    <t>MID Report DGFS - Disposed,MID Report DGFS - Live</t>
+  </si>
+  <si>
+    <t>email subject line summary</t>
+  </si>
+  <si>
+    <t>strWeeklysimarReportsubjectLine</t>
+  </si>
+  <si>
+    <t>strWeeklymidReportsubjectLine</t>
+  </si>
+  <si>
+    <t>strMonthlysimarReportsubjectLine</t>
+  </si>
+  <si>
+    <t>strMonthlyStartReportsubjectLine</t>
+  </si>
+  <si>
+    <t>Weekly MID DGFS Reports</t>
+  </si>
+  <si>
+    <t>Monthly StartSmart Report</t>
+  </si>
+  <si>
+    <t>Weekly SIMAR Commercial and Plant Reports</t>
+  </si>
+  <si>
+    <t>Monthly SIMAR Boat Report</t>
+  </si>
+  <si>
+    <t>SIMAR Boat Reconciliation</t>
+  </si>
+  <si>
+    <t>StartSmart Data Extract</t>
+  </si>
+  <si>
+    <t>azim.karim@defra.gov.uk;sean.crotty@defra.gov.uk</t>
+  </si>
+  <si>
+    <t>sean.crotty@defra.gov.uk;azim.karim@defra.gov.uk</t>
+  </si>
+  <si>
+    <t>azim.karim@defra.gov.uk;sean.crotty@environment-agency.gov.uk</t>
+  </si>
+  <si>
+    <t>sean.crotty@environment-agency.gov.uk;azim.karim@defra.gov.uk</t>
+  </si>
+  <si>
+    <t>ten seconds</t>
+  </si>
+  <si>
+    <t>timeoutDS</t>
   </si>
 </sst>
 </file>
@@ -125,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -147,6 +282,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C34" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="Name" dataDxfId="2"/>
     <tableColumn id="2" name="Value" dataDxfId="1"/>
@@ -504,21 +651,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -529,14 +676,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -547,47 +694,269 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>60000</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>120000</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
